--- a/Excel_Sheets/Grade_Caclulator.xlsx
+++ b/Excel_Sheets/Grade_Caclulator.xlsx
@@ -8,23 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/1006245/Projects/ITE140/Excel_Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B570A2-AADE-FF4A-A4A5-E1381F149222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC851CC-2E3B-4842-B598-E09EB24612C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{A9135EA4-8731-1847-BE3D-534E209C22AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{A9135EA4-8731-1847-BE3D-534E209C22AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
-    <sheet name="Grade_Table" sheetId="2" r:id="rId2"/>
-    <sheet name="Q1" sheetId="3" r:id="rId3"/>
-    <sheet name="Q2" sheetId="4" r:id="rId4"/>
-    <sheet name="Q3" sheetId="5" r:id="rId5"/>
-    <sheet name="Q4" sheetId="6" r:id="rId6"/>
+    <sheet name="Syllabus" sheetId="10" r:id="rId2"/>
+    <sheet name="Scenario Summary" sheetId="11" r:id="rId3"/>
+    <sheet name="Scenarios" sheetId="8" r:id="rId4"/>
+    <sheet name="Grade_Table" sheetId="2" r:id="rId5"/>
+    <sheet name="Q1" sheetId="3" r:id="rId6"/>
+    <sheet name="Q2" sheetId="4" r:id="rId7"/>
+    <sheet name="Q3" sheetId="5" r:id="rId8"/>
+    <sheet name="Q4" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="final_grade">Scenarios!$C$13</definedName>
+    <definedName name="final1">Scenarios!$C$6</definedName>
+    <definedName name="final2">Scenarios!$C$10</definedName>
     <definedName name="Letter_Grade">Grade_Table!$A$1:$C$6</definedName>
     <definedName name="Letter_Grades">#REF!</definedName>
+    <definedName name="midterm1">Scenarios!$C$4</definedName>
+    <definedName name="midterm2">Scenarios!$C$8</definedName>
     <definedName name="qp">#REF!</definedName>
     <definedName name="qual_points">Grade_Table!$A$9:$D$17</definedName>
+    <definedName name="quarter1">Scenarios!$C$3</definedName>
+    <definedName name="quarter2">Scenarios!$C$5</definedName>
+    <definedName name="quarter3">Scenarios!$C$7</definedName>
+    <definedName name="quarter4">Scenarios!$C$9</definedName>
+    <definedName name="semester1">Scenarios!$C$11</definedName>
+    <definedName name="semester2">Scenarios!$C$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>Begin Grade</t>
   </si>
@@ -152,13 +166,82 @@
   </si>
   <si>
     <t>Semester 2</t>
+  </si>
+  <si>
+    <t>quarter1</t>
+  </si>
+  <si>
+    <t>midterm1</t>
+  </si>
+  <si>
+    <t>quarter2</t>
+  </si>
+  <si>
+    <t>final1</t>
+  </si>
+  <si>
+    <t>quarter3</t>
+  </si>
+  <si>
+    <t>midterm2</t>
+  </si>
+  <si>
+    <t>quarter4</t>
+  </si>
+  <si>
+    <t>final2</t>
+  </si>
+  <si>
+    <t>$D$3</t>
+  </si>
+  <si>
+    <t>$E$3</t>
+  </si>
+  <si>
+    <t>semester1</t>
+  </si>
+  <si>
+    <t>Straight A's</t>
+  </si>
+  <si>
+    <t>Created by Elliott, Alexander on 9/13/2024</t>
+  </si>
+  <si>
+    <t>Rough First Quarter</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Bad At Tests</t>
+  </si>
+  <si>
+    <t>Good at Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,8 +303,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +360,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -539,12 +677,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -572,15 +728,14 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -591,9 +746,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -618,6 +771,35 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,6 +816,238 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4EEBE7-5C3A-AC3B-3036-FCAD6F82A437}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="228600"/>
+          <a:ext cx="6591300" cy="1841500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>The final grade average for each semester will be calculated by averaging the two quarterly grades and the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>final exam. The quarterly grades will be of equal weight and will collectively make up 80% of the</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>semester grade (40% for each quarter). The final exam will be worth 20% of the course grade and will be</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>averaged with the quarter grades to determine the final average:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>HIS 121: (MP1 x 40%) + (MP2 x 40%) + (FE x 20%) = Final Average</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D0DDB7-DAD0-8AD3-FCD5-1F019E4CEEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8204200" y="152400"/>
+          <a:ext cx="6718300" cy="7874000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,206 +1369,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0406A4E-62D8-E645-B199-5C1F7E628AE8}">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="57" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="62">
         <f>'Q1'!K8</f>
         <v>0.87573964497041423</v>
       </c>
-      <c r="D3" s="66" t="str">
-        <f>'Q1'!K9</f>
+      <c r="D3" s="63" t="str">
+        <f>VLOOKUP(C3,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B+</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <f>VLOOKUP(C3,Grade_Table!A10:D17,4,TRUE)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="60">
         <v>0.87</v>
       </c>
-      <c r="D4" s="56" t="str">
-        <f>VLOOKUP(C4,Grade_Table!A10:D17,3,FALSE)</f>
+      <c r="D4" s="53" t="str">
+        <f>VLOOKUP(C4,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B+</v>
       </c>
-      <c r="E4" s="57">
-        <f>VLOOKUP(C4,Grade_Table!A11:D18,4,TRUE)</f>
+      <c r="E4" s="54">
+        <f>VLOOKUP(C4,Grade_Table!A10:D17,4,TRUE)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="59">
         <f>'Q2'!K8</f>
         <v>0.87573964497041423</v>
       </c>
-      <c r="D5" s="56" t="str">
-        <f>'Q2'!K9</f>
+      <c r="D5" s="53" t="str">
+        <f>VLOOKUP(C5,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B+</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <f>VLOOKUP(C5,Grade_Table!A12:D19,4,TRUE)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="64">
         <v>0.68</v>
       </c>
-      <c r="D6" s="66" t="str">
+      <c r="D6" s="63" t="str">
         <f>VLOOKUP(C6,Grade_Table!A10:D17,3,TRUE)</f>
         <v>D+</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="65">
         <f>VLOOKUP(C6,Grade_Table!A10:D17,4,TRUE)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="65">
+      <c r="C7" s="62">
         <f>'Q3'!K8</f>
         <v>0.88</v>
       </c>
-      <c r="D7" s="66" t="str">
-        <f>'Q3'!K9</f>
+      <c r="D7" s="63" t="str">
+        <f>VLOOKUP(C7,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B+</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="65">
         <f>VLOOKUP(C7,Grade_Table!A14:D21,4,TRUE)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="64">
         <v>0.98</v>
       </c>
-      <c r="D8" s="66" t="str">
+      <c r="D8" s="63" t="str">
         <f>VLOOKUP(C8,Grade_Table!A10:D17,3,TRUE)</f>
         <v>A</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="65">
         <f>VLOOKUP(C8,Grade_Table!A15:D22,4,TRUE)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="65">
+      <c r="C9" s="62">
         <f>'Q4'!K8</f>
         <v>0.88</v>
       </c>
-      <c r="D9" s="66" t="str">
-        <f>'Q4'!K9</f>
+      <c r="D9" s="63" t="str">
+        <f>VLOOKUP(C9,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B+</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="65">
         <f>VLOOKUP(C9,Grade_Table!A16:D23,4,TRUE)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="52">
         <v>0.78</v>
       </c>
-      <c r="D10" s="52" t="str">
+      <c r="D10" s="49" t="str">
         <f>VLOOKUP(C10,Grade_Table!A10:D17,3,TRUE)</f>
         <v>C+</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="50">
         <f>VLOOKUP(C10,Grade_Table!A10:D17,4,TRUE)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="70">
-        <f>AVERAGE(C3:C6)</f>
-        <v>0.82536982248520718</v>
-      </c>
-      <c r="D11" s="71" t="str">
+      <c r="C11" s="67">
+        <f>(C3)*0.4+(C5)*0.4+(C6)*0.2</f>
+        <v>0.83659171597633142</v>
+      </c>
+      <c r="D11" s="68" t="str">
         <f>VLOOKUP(C11,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="E11" s="72">
-        <f>AVERAGE(E3:E6)</f>
+      <c r="E11" s="69">
+        <f>VLOOKUP(C11,Grade_Table!A10:D17,4,TRUE)</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="65">
-        <f>AVERAGE(C7:C10)</f>
-        <v>0.87999999999999989</v>
-      </c>
-      <c r="D12" s="66" t="str">
+      <c r="C12" s="62">
+        <f>C7*0.4+C9*0.4+C10*0.2</f>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="D12" s="63" t="str">
         <f>VLOOKUP(C12,Grade_Table!A10:D17,3,TRUE)</f>
-        <v>B+</v>
-      </c>
-      <c r="E12" s="68">
-        <f>AVERAGE(E7:E10)</f>
-        <v>3.375</v>
+        <v>B</v>
+      </c>
+      <c r="E12" s="65">
+        <f>VLOOKUP(C12,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="51">
         <f>AVERAGE(C11:C12)</f>
-        <v>0.85268491124260359</v>
-      </c>
-      <c r="D13" s="52" t="str">
+        <v>0.84829585798816576</v>
+      </c>
+      <c r="D13" s="49" t="str">
         <f>VLOOKUP(C13,Grade_Table!A10:D17,3,TRUE)</f>
         <v>B</v>
       </c>
-      <c r="E13" s="53">
-        <f>AVERAGE(E11:E12)</f>
-        <v>3.1875</v>
+      <c r="E13" s="50">
+        <f>VLOOKUP(C13,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1163,6 +1577,693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEA570-AC9F-CC40-AC36-FC9F37FE685E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6800015-B878-F24F-8C6B-8D790570970C}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:H20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="74"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="2:8" ht="19" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="77"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="71">
+        <v>0.86</v>
+      </c>
+      <c r="E6" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="81">
+        <v>0</v>
+      </c>
+      <c r="G6" s="81">
+        <v>0.95</v>
+      </c>
+      <c r="H6" s="81">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="71">
+        <v>1</v>
+      </c>
+      <c r="E7" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="81">
+        <v>0.65</v>
+      </c>
+      <c r="G7" s="81">
+        <v>0.45</v>
+      </c>
+      <c r="H7" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="H8" s="81">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="71">
+        <v>1</v>
+      </c>
+      <c r="E9" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="81">
+        <v>0.54</v>
+      </c>
+      <c r="H9" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="76"/>
+      <c r="C10" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="71">
+        <v>0.78</v>
+      </c>
+      <c r="E10" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G10" s="81">
+        <v>0.97</v>
+      </c>
+      <c r="H10" s="81">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="76"/>
+      <c r="C11" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F11" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="81">
+        <v>0.43</v>
+      </c>
+      <c r="H11" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="71">
+        <v>0.72</v>
+      </c>
+      <c r="E12" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G12" s="81">
+        <v>0.98</v>
+      </c>
+      <c r="H12" s="81">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="71">
+        <v>1</v>
+      </c>
+      <c r="E13" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="81">
+        <v>0.9</v>
+      </c>
+      <c r="G13" s="81">
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="76"/>
+      <c r="C15" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="76"/>
+      <c r="C16" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="70">
+        <v>3</v>
+      </c>
+      <c r="E16" s="70">
+        <v>4</v>
+      </c>
+      <c r="F16" s="70">
+        <v>0</v>
+      </c>
+      <c r="G16" s="70">
+        <v>4</v>
+      </c>
+      <c r="H16" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="78"/>
+      <c r="C17" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="72">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="E17" s="72">
+        <v>0.9</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="G17" s="72">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0.90249999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A070AE-6A6A-5F48-A07E-701F01DFB377}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="62">
+        <v>0.86</v>
+      </c>
+      <c r="D3" s="63" t="str">
+        <f>VLOOKUP(C3,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>B</v>
+      </c>
+      <c r="E3" s="54">
+        <f>VLOOKUP(C3,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="60">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53" t="str">
+        <f>VLOOKUP(C4,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="E4" s="54">
+        <f>VLOOKUP(midterm1,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="53" t="str">
+        <f>VLOOKUP(C5,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="E5" s="54">
+        <f>VLOOKUP(C5,Grade_Table!A12:D19,4,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="64">
+        <v>1</v>
+      </c>
+      <c r="D6" s="63" t="str">
+        <f>VLOOKUP(C6,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="E6" s="65">
+        <f>VLOOKUP(C6,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.78</v>
+      </c>
+      <c r="D7" s="63" t="str">
+        <f>VLOOKUP(C7,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>C+</v>
+      </c>
+      <c r="E7" s="65">
+        <f>VLOOKUP(C7,Grade_Table!A14:D21,4,TRUE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="64">
+        <v>1</v>
+      </c>
+      <c r="D8" s="63" t="str">
+        <f>VLOOKUP(C8,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="E8" s="65">
+        <f>VLOOKUP(midterm2,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="62">
+        <v>0.72</v>
+      </c>
+      <c r="D9" s="63" t="str">
+        <f>VLOOKUP(C9,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>C</v>
+      </c>
+      <c r="E9" s="65">
+        <f>VLOOKUP(quarter4,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="52">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49" t="str">
+        <f>VLOOKUP(C10,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="E10" s="50">
+        <f>VLOOKUP(C10,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="46"/>
+      <c r="B11" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="67">
+        <f>AVERAGE(C3:C6)</f>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="D11" s="68" t="str">
+        <f>VLOOKUP(C11,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>A</v>
+      </c>
+      <c r="E11" s="69">
+        <f>VLOOKUP(C11,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="62">
+        <f>AVERAGE(C7:C10)</f>
+        <v>0.875</v>
+      </c>
+      <c r="D12" s="63" t="str">
+        <f>VLOOKUP(C12,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>B+</v>
+      </c>
+      <c r="E12" s="65">
+        <f>VLOOKUP(C12,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46"/>
+      <c r="B13" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="51">
+        <f>AVERAGE(C11:C12)</f>
+        <v>0.88874999999999993</v>
+      </c>
+      <c r="D13" s="49" t="str">
+        <f>VLOOKUP(C13,Grade_Table!A10:D17,3,TRUE)</f>
+        <v>B+</v>
+      </c>
+      <c r="E13" s="50">
+        <f>VLOOKUP(C13,Grade_Table!A10:D17,4,TRUE)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+    </row>
+  </sheetData>
+  <scenarios current="3" show="3" sqref="D3 E3 C11">
+    <scenario name="Straight A's" locked="1" count="8" user="Elliott, Alexander" comment="Created by Elliott, Alexander on 9/13/2024">
+      <inputCells r="C3" val="0.9"/>
+      <inputCells r="C4" val="0.9" numFmtId="9"/>
+      <inputCells r="C5" val="0.9"/>
+      <inputCells r="C6" val="0.9" numFmtId="9"/>
+      <inputCells r="C7" val="0.9"/>
+      <inputCells r="C8" val="0.9" numFmtId="9"/>
+      <inputCells r="C9" val="0.9"/>
+      <inputCells r="C10" val="0.9" numFmtId="9"/>
+    </scenario>
+    <scenario name="Rough First Quarter" locked="1" count="8" user="Elliott, Alexander" comment="Created by Elliott, Alexander on 9/13/2024">
+      <inputCells r="C3" val="0" numFmtId="9"/>
+      <inputCells r="C4" val="0.65" numFmtId="9"/>
+      <inputCells r="C5" val="0.9" numFmtId="9"/>
+      <inputCells r="C6" val="0.9" numFmtId="9"/>
+      <inputCells r="C7" val="0.9" numFmtId="9"/>
+      <inputCells r="C8" val="0.9" numFmtId="9"/>
+      <inputCells r="C9" val="0.9" numFmtId="9"/>
+      <inputCells r="C10" val="0.9" numFmtId="9"/>
+    </scenario>
+    <scenario name="Bad At Tests" locked="1" count="8" user="Elliott, Alexander" comment="Created by Elliott, Alexander on 9/13/2024">
+      <inputCells r="C3" val="0.95" numFmtId="9"/>
+      <inputCells r="C4" val="0.45" numFmtId="9"/>
+      <inputCells r="C5" val="0.93" numFmtId="9"/>
+      <inputCells r="C6" val="0.54" numFmtId="9"/>
+      <inputCells r="C7" val="0.97" numFmtId="9"/>
+      <inputCells r="C8" val="0.43" numFmtId="9"/>
+      <inputCells r="C9" val="0.98" numFmtId="9"/>
+      <inputCells r="C10" val="0.6" numFmtId="9"/>
+    </scenario>
+    <scenario name="Good at Tests" locked="1" count="8" user="Elliott, Alexander" comment="Created by Elliott, Alexander on 9/13/2024">
+      <inputCells r="C3" val="0.86" numFmtId="9"/>
+      <inputCells r="C4" val="1" numFmtId="9"/>
+      <inputCells r="C5" val="0.75" numFmtId="9"/>
+      <inputCells r="C6" val="1" numFmtId="9"/>
+      <inputCells r="C7" val="0.78" numFmtId="9"/>
+      <inputCells r="C8" val="1" numFmtId="9"/>
+      <inputCells r="C9" val="0.72" numFmtId="9"/>
+      <inputCells r="C10" val="1" numFmtId="9"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A9B056-E87F-3E42-BD88-940B38C49F9C}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -1416,94 +2517,91 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="45"/>
       <c r="K21">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="21"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="21"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="10"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="21"/>
-      <c r="E23" s="48"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="21"/>
-      <c r="E24" s="48"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="48"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="27"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
@@ -1516,7 +2614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10548F17-EE03-2240-930A-3EBDAB23B8BF}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1535,149 +2633,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>18</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>20</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>18</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>19</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>21</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>19</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>23</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>3</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>20</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>28</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>28</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>43</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>50</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>43</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>10</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>6</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>10</v>
       </c>
       <c r="K7" t="s">
@@ -1685,23 +2776,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>12</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>12</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>15</v>
       </c>
       <c r="J8" t="s">
@@ -1713,17 +2803,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38">
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="E9" s="37">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="37"/>
       <c r="J9" t="s">
         <v>2</v>
       </c>
@@ -1733,217 +2822,215 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="38">
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="E10" s="37">
         <v>9</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38">
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="E11" s="37">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="38">
+      <c r="B12" s="34"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="37">
         <v>11</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="38">
+      <c r="B13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="37">
         <v>12</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="38">
+      <c r="B14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="E14" s="37">
         <v>13</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="E15" s="38">
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="E15" s="37">
         <v>14</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="E16" s="38">
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="37">
         <v>15</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="38">
+      <c r="B17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="37">
         <v>16</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="E18" s="38">
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="37">
         <v>17</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="38">
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="37">
         <v>18</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="E20" s="38">
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="37">
         <v>19</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="38">
+      <c r="B21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="37">
         <v>20</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="E22" s="38">
+      <c r="B22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="37">
         <v>21</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="E23" s="38">
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="37">
         <v>22</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="E24" s="38">
+      <c r="B24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="37">
         <v>23</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38">
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="37">
         <v>24</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="40"/>
-      <c r="E26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="39"/>
+      <c r="E26" s="37">
         <v>25</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253ED0F7-2EB5-9A4D-AF9C-B4886807D2F5}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -1962,149 +3049,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>18</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>20</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>18</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>19</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>21</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>19</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>23</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>3</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>20</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>28</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>28</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>43</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>50</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>43</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>10</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>6</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>10</v>
       </c>
       <c r="K7" t="s">
@@ -2112,23 +3192,22 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>12</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>12</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>15</v>
       </c>
       <c r="J8" t="s">
@@ -2140,17 +3219,16 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38">
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="E9" s="37">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="37"/>
       <c r="J9" t="s">
         <v>2</v>
       </c>
@@ -2160,217 +3238,215 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="38">
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="E10" s="37">
         <v>9</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38">
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="E11" s="37">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="38">
+      <c r="B12" s="34"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="37">
         <v>11</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="38">
+      <c r="B13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="37">
         <v>12</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="38">
+      <c r="B14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="E14" s="37">
         <v>13</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="E15" s="38">
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="E15" s="37">
         <v>14</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="E16" s="38">
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="37">
         <v>15</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="38">
+      <c r="B17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="37">
         <v>16</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="E18" s="38">
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="37">
         <v>17</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="38">
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="37">
         <v>18</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="E20" s="38">
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="37">
         <v>19</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="38">
+      <c r="B21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="37">
         <v>20</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="E22" s="38">
+      <c r="B22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="37">
         <v>21</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="E23" s="38">
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="37">
         <v>22</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="E24" s="38">
+      <c r="B24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="37">
         <v>23</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38">
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="37">
         <v>24</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="40"/>
-      <c r="E26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="39"/>
+      <c r="E26" s="37">
         <v>25</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9797BA6-1E92-6749-9CD0-3D4B2B31ED60}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -2389,418 +3465,407 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>18</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>20</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>18</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>19</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>21</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>19</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>23</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>3</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>20</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>28</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>28</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>43</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>50</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>43</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>10</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>6</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>10</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>12</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>12</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>15</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="47">
         <v>0.88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38">
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="E9" s="37">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="38"/>
-      <c r="J9" s="49" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="37"/>
+      <c r="J9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="38">
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="E10" s="37">
         <v>9</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="38"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38">
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="E11" s="37">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="39"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="38"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="38">
+      <c r="B12" s="34"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="37">
         <v>11</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="38">
+      <c r="B13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="37">
         <v>12</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="38">
+      <c r="B14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="E14" s="37">
         <v>13</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="E15" s="38">
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="E15" s="37">
         <v>14</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="E16" s="38">
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="37">
         <v>15</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="38">
+      <c r="B17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="37">
         <v>16</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="E18" s="38">
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="37">
         <v>17</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="38">
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="37">
         <v>18</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="E20" s="38">
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="37">
         <v>19</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="38">
+      <c r="B21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="37">
         <v>20</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="E22" s="38">
+      <c r="B22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="37">
         <v>21</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="E23" s="38">
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="37">
         <v>22</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="E24" s="38">
+      <c r="B24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="37">
         <v>23</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38">
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="37">
         <v>24</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="40"/>
-      <c r="E26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="39"/>
+      <c r="E26" s="37">
         <v>25</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4E0D9B-F6F7-6947-82F4-8158DF750786}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -2819,411 +3884,400 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>18</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="40">
         <v>20</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>1</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>18</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>19</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="41">
         <v>21</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="38">
+      <c r="E3" s="37">
         <v>2</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <v>19</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="37">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>20</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>23</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="38">
+      <c r="E4" s="37">
         <v>3</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>20</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="37">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>28</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>4</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>28</v>
       </c>
-      <c r="G5" s="42">
+      <c r="G5" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="37">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>43</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>50</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>5</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="30">
         <v>43</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="37">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>10</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>6</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="41">
         <v>10</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="38">
+      <c r="A8" s="37">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>12</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>15</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>12</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>15</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="47">
         <v>0.88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="38">
+      <c r="A9" s="37">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="38">
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="E9" s="37">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="38"/>
-      <c r="J9" s="49" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="37"/>
+      <c r="J9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="49" t="s">
+      <c r="K9" s="46" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="38">
+      <c r="A10" s="37">
         <v>9</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="38">
+      <c r="B10" s="33"/>
+      <c r="C10" s="37"/>
+      <c r="E10" s="37">
         <v>9</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="38"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="37"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="38">
+      <c r="A11" s="37">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="38">
+      <c r="B11" s="34"/>
+      <c r="C11" s="38"/>
+      <c r="E11" s="37">
         <v>10</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="39"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="38"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="38">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="39"/>
-      <c r="E12" s="38">
+      <c r="B12" s="34"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="37">
         <v>11</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="38"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="38">
+      <c r="A13" s="37">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="39"/>
-      <c r="E13" s="38">
+      <c r="B13" s="34"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="37">
         <v>12</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="38"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="38">
+      <c r="A14" s="37">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="39"/>
-      <c r="E14" s="38">
+      <c r="B14" s="34"/>
+      <c r="C14" s="38"/>
+      <c r="E14" s="37">
         <v>13</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="38">
+      <c r="A15" s="37">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="39"/>
-      <c r="E15" s="38">
+      <c r="B15" s="34"/>
+      <c r="C15" s="38"/>
+      <c r="E15" s="37">
         <v>14</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="38">
+      <c r="A16" s="37">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="39"/>
-      <c r="E16" s="38">
+      <c r="B16" s="34"/>
+      <c r="C16" s="38"/>
+      <c r="E16" s="37">
         <v>15</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="38">
+      <c r="A17" s="37">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="39"/>
-      <c r="E17" s="38">
+      <c r="B17" s="34"/>
+      <c r="C17" s="38"/>
+      <c r="E17" s="37">
         <v>16</v>
       </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="38">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="39"/>
-      <c r="E18" s="38">
+      <c r="B18" s="34"/>
+      <c r="C18" s="38"/>
+      <c r="E18" s="37">
         <v>17</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="38">
+      <c r="A19" s="37">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="39"/>
-      <c r="E19" s="38">
+      <c r="B19" s="34"/>
+      <c r="C19" s="38"/>
+      <c r="E19" s="37">
         <v>18</v>
       </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="38">
+      <c r="A20" s="37">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="39"/>
-      <c r="E20" s="38">
+      <c r="B20" s="34"/>
+      <c r="C20" s="38"/>
+      <c r="E20" s="37">
         <v>19</v>
       </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
+      <c r="A21" s="37">
         <v>20</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="38">
+      <c r="B21" s="34"/>
+      <c r="C21" s="38"/>
+      <c r="E21" s="37">
         <v>20</v>
       </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
+      <c r="A22" s="37">
         <v>21</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="39"/>
-      <c r="E22" s="38">
+      <c r="B22" s="34"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="37">
         <v>21</v>
       </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
+      <c r="A23" s="37">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="39"/>
-      <c r="E23" s="38">
+      <c r="B23" s="34"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="37">
         <v>22</v>
       </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
+      <c r="A24" s="37">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="39"/>
-      <c r="E24" s="38">
+      <c r="B24" s="34"/>
+      <c r="C24" s="38"/>
+      <c r="E24" s="37">
         <v>23</v>
       </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38">
+      <c r="B25" s="34"/>
+      <c r="C25" s="38"/>
+      <c r="E25" s="37">
         <v>24</v>
       </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
+      <c r="A26" s="37">
         <v>25</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="40"/>
-      <c r="E26" s="38">
+      <c r="B26" s="35"/>
+      <c r="C26" s="39"/>
+      <c r="E26" s="37">
         <v>25</v>
       </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="40"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
